--- a/Design&Spec/DB_Spec.xlsx
+++ b/Design&Spec/DB_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSD-assignment\Design&amp;Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEFACAE-1A9F-4894-9BC4-5C37E13F701B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D4EFAA-21FA-40E9-99FB-584B003EC244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7605" yWindow="3375" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB_Spec_Business" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="114">
   <si>
     <t>tel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,257 +153,286 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gstin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `emart_a`.`t_customer` (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `type` CHAR(1) NOT NULL COMMENT 'S:Seller,B:Buyer,M:Admin',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `id` VARCHAR(45) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `email` VARCHAR(45) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `tel` VARCHAR(32) NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `company` VARCHAR(45) NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `address` VARCHAR(45) NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `gstin` VARCHAR(45) NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `bank_detail` VARCHAR(45) NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `create_time` TIMESTAMP NOT NULL DEFAULT CURRENT_TIMESTAMP,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PRIMARY KEY (`id`));</t>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `emart_a`.`t_auth` (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `passowrd` VARCHAR(45) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `update_time` TIMESTAMP NOT NULL,</t>
+  </si>
+  <si>
+    <t>t_session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  `session_key` VARCHAR(45) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `last_login_time` TIMESTAMP NULL DEFAULT CURRENT_TIMESTAMP,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PRIMARY KEY (`session_key`));</t>
+  </si>
+  <si>
+    <t>t_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT(10)</t>
+  </si>
+  <si>
+    <t>BIGINT(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacturer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sold_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `emart_a`.`t_item` (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `item_id` BIGINT(10) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `name` VARCHAR(45) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `manufacturer` VARCHAR(45) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `category` VARCHAR(45) NOT NULL COMMENT 'split by \',\'',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `price` DECIMAL NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `stock` INT NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `owner_id` VARCHAR(45) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `sold_count` INT NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `create_time` TIMESTAMP NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PRIMARY KEY (`item_id`));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `detail` VARCHAR(20000) NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyer_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_time</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `emart_a`.`t_order` (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `order_id` BIGINT(10) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `item_id` BIGINT(10) NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `price` DECIMAL NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `count` INT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `amount` DECIMAL NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `seller_id` VARCHAR(45) NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `buyer_id` VARCHAR(45) NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `order_time` TIMESTAMP NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PRIMARY KEY (`order_id`));</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `emart_a`.`t_session` (</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>s_manufacturer</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gstin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bank_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE `emart_a`.`t_customer` (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `type` CHAR(1) NOT NULL COMMENT 'S:Seller,B:Buyer,M:Admin',</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `id` VARCHAR(45) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `email` VARCHAR(45) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `tel` VARCHAR(32) NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `company` VARCHAR(45) NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `address` VARCHAR(45) NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `gstin` VARCHAR(45) NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `bank_detail` VARCHAR(45) NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `create_time` TIMESTAMP NOT NULL DEFAULT CURRENT_TIMESTAMP,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PRIMARY KEY (`id`));</t>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_auth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE `emart_a`.`t_auth` (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `passowrd` VARCHAR(45) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `update_time` TIMESTAMP NOT NULL,</t>
-  </si>
-  <si>
-    <t>t_session</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>session_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_login_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  `session_key` VARCHAR(45) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `last_login_time` TIMESTAMP NULL DEFAULT CURRENT_TIMESTAMP,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PRIMARY KEY (`session_key`));</t>
-  </si>
-  <si>
-    <t>t_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT(10)</t>
-  </si>
-  <si>
-    <t>BIGINT(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manufacturer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>owner_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sold_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE `emart_a`.`t_item` (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `item_id` BIGINT(10) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `name` VARCHAR(45) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `manufacturer` VARCHAR(45) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `category` VARCHAR(45) NOT NULL COMMENT 'split by \',\'',</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `price` DECIMAL NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `stock` INT NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `owner_id` VARCHAR(45) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `sold_count` INT NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `create_time` TIMESTAMP NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PRIMARY KEY (`item_id`));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `detail` VARCHAR(20000) NOT NULL,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyer_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_time</t>
-  </si>
-  <si>
-    <t>CREATE TABLE `emart_a`.`t_order` (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `order_id` BIGINT(10) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `item_id` BIGINT(10) NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `price` DECIMAL NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `count` INT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `amount` DECIMAL NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `seller_id` VARCHAR(45) NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `buyer_id` VARCHAR(45) NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `order_time` TIMESTAMP NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PRIMARY KEY (`order_id`));</t>
-  </si>
-  <si>
-    <t>CREATE TABLE `emart_a`.`t_session` (</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `emart_a`.`t_cart` (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `account_id` VARCHAR(45) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `cart_items` VARCHAR(5000) NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PRIMARY KEY (`account_id`));</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -650,8 +679,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{3BC7F793-6E6B-494B-BE6E-83789A369A70}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -926,9 +983,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -942,12 +1001,12 @@
     <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -955,7 +1014,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -976,13 +1035,13 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>18</v>
@@ -996,13 +1055,13 @@
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>17</v>
@@ -1016,10 +1075,10 @@
       <c r="F4" s="18"/>
       <c r="G4" s="14"/>
       <c r="H4" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="15" t="s">
         <v>1</v>
@@ -1034,10 +1093,10 @@
       <c r="F5" s="18"/>
       <c r="G5" s="14"/>
       <c r="H5" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="15" t="s">
         <v>0</v>
@@ -1050,10 +1109,10 @@
       <c r="F6" s="18"/>
       <c r="G6" s="14"/>
       <c r="H6" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="15" t="s">
         <v>2</v>
@@ -1066,10 +1125,10 @@
       <c r="F7" s="18"/>
       <c r="G7" s="14"/>
       <c r="H7" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="15" t="s">
         <v>3</v>
@@ -1082,13 +1141,13 @@
       <c r="F8" s="18"/>
       <c r="G8" s="14"/>
       <c r="H8" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>19</v>
@@ -1098,13 +1157,13 @@
       <c r="F9" s="18"/>
       <c r="G9" s="14"/>
       <c r="H9" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>19</v>
@@ -1114,13 +1173,13 @@
       <c r="F10" s="18"/>
       <c r="G10" s="14"/>
       <c r="H10" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>16</v>
@@ -1132,20 +1191,20 @@
       <c r="F11" s="23"/>
       <c r="G11" s="14"/>
       <c r="H11" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1153,7 +1212,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1174,13 +1233,13 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>19</v>
@@ -1194,13 +1253,13 @@
       <c r="F15" s="18"/>
       <c r="G15" s="14"/>
       <c r="H15" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>17</v>
@@ -1212,13 +1271,13 @@
       <c r="F16" s="18"/>
       <c r="G16" s="14"/>
       <c r="H16" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>16</v>
@@ -1230,20 +1289,20 @@
       <c r="F17" s="23"/>
       <c r="G17" s="14"/>
       <c r="H17" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H18" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1251,7 +1310,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1272,13 +1331,13 @@
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>17</v>
@@ -1290,13 +1349,13 @@
       <c r="F21" s="18"/>
       <c r="G21" s="14"/>
       <c r="H21" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>17</v>
@@ -1310,13 +1369,13 @@
       <c r="F22" s="18"/>
       <c r="G22" s="14"/>
       <c r="H22" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>16</v>
@@ -1328,20 +1387,20 @@
       <c r="F23" s="23"/>
       <c r="G23" s="14"/>
       <c r="H23" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H24" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1349,7 +1408,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1370,16 +1429,16 @@
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>9</v>
@@ -1390,10 +1449,10 @@
       <c r="F27" s="18"/>
       <c r="G27" s="14"/>
       <c r="H27" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="15" t="s">
         <v>24</v>
@@ -1408,13 +1467,13 @@
       <c r="F28" s="18"/>
       <c r="G28" s="14"/>
       <c r="H28" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>17</v>
@@ -1426,13 +1485,13 @@
       <c r="F29" s="18"/>
       <c r="G29" s="14"/>
       <c r="H29" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>17</v>
@@ -1446,13 +1505,13 @@
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>19</v>
@@ -1464,13 +1523,13 @@
       <c r="F31" s="18"/>
       <c r="G31" s="14"/>
       <c r="H31" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>21</v>
@@ -1482,13 +1541,13 @@
       <c r="F32" s="18"/>
       <c r="G32" s="14"/>
       <c r="H32" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>22</v>
@@ -1500,13 +1559,13 @@
       <c r="F33" s="18"/>
       <c r="G33" s="14"/>
       <c r="H33" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>17</v>
@@ -1518,13 +1577,13 @@
       <c r="F34" s="18"/>
       <c r="G34" s="14"/>
       <c r="H34" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>22</v>
@@ -1536,13 +1595,13 @@
       <c r="F35" s="18"/>
       <c r="G35" s="14"/>
       <c r="H35" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>16</v>
@@ -1554,13 +1613,13 @@
       <c r="F36" s="18"/>
       <c r="G36" s="14"/>
       <c r="H36" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>16</v>
@@ -1572,20 +1631,20 @@
       <c r="F37" s="23"/>
       <c r="G37" s="14"/>
       <c r="H37" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H38" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1593,7 +1652,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -1614,16 +1673,16 @@
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>9</v>
@@ -1634,16 +1693,16 @@
       <c r="F41" s="18"/>
       <c r="G41" s="14"/>
       <c r="H41" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="17" t="s">
@@ -1652,16 +1711,16 @@
       <c r="F42" s="18"/>
       <c r="G42" s="14"/>
       <c r="H42" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="17" t="s">
@@ -1670,13 +1729,13 @@
       <c r="F43" s="18"/>
       <c r="G43" s="14"/>
       <c r="H43" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>22</v>
@@ -1688,13 +1747,13 @@
       <c r="F44" s="18"/>
       <c r="G44" s="14"/>
       <c r="H44" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>21</v>
@@ -1706,13 +1765,13 @@
       <c r="F45" s="18"/>
       <c r="G45" s="14"/>
       <c r="H45" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>17</v>
@@ -1724,13 +1783,13 @@
       <c r="F46" s="18"/>
       <c r="G46" s="14"/>
       <c r="H46" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>17</v>
@@ -1742,13 +1801,13 @@
       <c r="F47" s="18"/>
       <c r="G47" s="14"/>
       <c r="H47" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>16</v>
@@ -1760,12 +1819,103 @@
       <c r="F48" s="23"/>
       <c r="G48" s="14"/>
       <c r="H48" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="8:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H49" s="6" t="s">
-        <v>104</v>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="18"/>
+      <c r="H52" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="18"/>
+      <c r="H53" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
+      <c r="B54" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="23"/>
+      <c r="H54" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H55" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1779,7 +1929,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39913C91-132A-431F-9416-13BC9EE41D1D}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1890,7 +2042,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>

--- a/Design&Spec/DB_Spec.xlsx
+++ b/Design&Spec/DB_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSD-assignment\Design&amp;Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D4EFAA-21FA-40E9-99FB-584B003EC244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A5C2B5-CB20-405E-ABA6-BA3C7E9C3DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5055" yWindow="3285" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB_Spec_Business" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="124">
   <si>
     <t>tel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,6 +427,40 @@
   </si>
   <si>
     <t xml:space="preserve">  PRIMARY KEY (`account_id`));</t>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `t_message` (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `sendby` varchar(45) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `sendto` varchar(45) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `text` varchar(1000) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `create_time` timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>) ENGINE=InnoDB DEFAULT CHARSET=utf8</t>
   </si>
 </sst>
 </file>
@@ -983,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,6 +1950,114 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H55" s="6" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="18"/>
+      <c r="H58" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
+      <c r="B59" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="14"/>
+      <c r="E59" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="18"/>
+      <c r="H59" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="14"/>
+      <c r="E60" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="18"/>
+      <c r="H60" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="22"/>
+      <c r="E61" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="23"/>
+      <c r="H61" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H62" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Design&Spec/DB_Spec.xlsx
+++ b/Design&Spec/DB_Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSD-assignment\Design&amp;Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A5C2B5-CB20-405E-ABA6-BA3C7E9C3DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6B80F0-30FA-44A0-9E9A-9473F76D79B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="3285" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB_Spec_Business" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="132">
   <si>
     <t>tel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,36 +177,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CREATE TABLE `emart_a`.`t_customer` (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `type` CHAR(1) NOT NULL COMMENT 'S:Seller,B:Buyer,M:Admin',</t>
-  </si>
-  <si>
     <t xml:space="preserve">  `id` VARCHAR(45) NOT NULL,</t>
   </si>
   <si>
-    <t xml:space="preserve">  `email` VARCHAR(45) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `tel` VARCHAR(32) NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `company` VARCHAR(45) NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `address` VARCHAR(45) NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `gstin` VARCHAR(45) NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `bank_detail` VARCHAR(45) NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `create_time` TIMESTAMP NOT NULL DEFAULT CURRENT_TIMESTAMP,</t>
-  </si>
-  <si>
     <t xml:space="preserve">  PRIMARY KEY (`id`));</t>
   </si>
   <si>
@@ -461,6 +434,62 @@
   </si>
   <si>
     <t>) ENGINE=InnoDB DEFAULT CHARSET=utf8</t>
+  </si>
+  <si>
+    <t>seller_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `t_customer` (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `type` char(1) NOT NULL COMMENT 'S:Seller,B:Buyer,M:Admin',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `id` varchar(45) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `email` varchar(45) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `tel` varchar(32) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `company` varchar(60) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `address` varchar(255) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `gstin` varchar(45) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `bank_detail` varchar(45) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `seller_date` date DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `create_time` timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PRIMARY KEY (`id`)</t>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:normal,1:blocked,2:archived</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -683,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -709,6 +738,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1017,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,10 +1063,11 @@
     <col min="5" max="5" width="11.375" style="6" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="8" max="8" width="6" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1047,8 +1079,11 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1068,11 +1103,11 @@
         <v>8</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
         <v>34</v>
@@ -1088,11 +1123,12 @@
         <v>13</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="18"/>
+      <c r="I3" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="15" t="s">
         <v>36</v>
@@ -1108,11 +1144,12 @@
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="18"/>
+      <c r="I4" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="15" t="s">
         <v>1</v>
@@ -1126,11 +1163,12 @@
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="18"/>
+      <c r="I5" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="15" t="s">
         <v>0</v>
@@ -1142,11 +1180,12 @@
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="18"/>
+      <c r="I6" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="15" t="s">
         <v>2</v>
@@ -1158,11 +1197,12 @@
       <c r="E7" s="17"/>
       <c r="F7" s="18"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="18"/>
+      <c r="I7" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="15" t="s">
         <v>3</v>
@@ -1174,11 +1214,12 @@
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="18"/>
+      <c r="I8" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="15" t="s">
         <v>37</v>
@@ -1190,11 +1231,12 @@
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="18"/>
+      <c r="I9" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="15" t="s">
         <v>38</v>
@@ -1206,326 +1248,316 @@
       <c r="E10" s="17"/>
       <c r="F10" s="18"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="14"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="I16" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="5"/>
+      <c r="I17" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G20" s="14"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="21" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="I22" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="5"/>
+      <c r="I23" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H12" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="14"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="6" t="s">
+      <c r="G28" s="5"/>
+      <c r="I28" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="15" t="s">
+      <c r="C29" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="14" t="s">
+      <c r="D29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="24" t="s">
+      <c r="E29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="5"/>
+      <c r="I29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="15" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>17</v>
@@ -1534,21 +1566,20 @@
       <c r="E30" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="F30" s="18"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="18"/>
+      <c r="I30" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="15" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="17" t="s">
@@ -1556,35 +1587,39 @@
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="18"/>
+      <c r="I31" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="15" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="F32" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="G32" s="14"/>
-      <c r="H32" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="18"/>
+      <c r="I32" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="15" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="17" t="s">
@@ -1592,17 +1627,18 @@
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="14"/>
-      <c r="H33" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="18"/>
+      <c r="I33" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="15" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="17" t="s">
@@ -1610,14 +1646,15 @@
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="18"/>
+      <c r="I34" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="15" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>22</v>
@@ -1628,169 +1665,175 @@
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="18"/>
+      <c r="I35" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="15" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="14"/>
-      <c r="H36" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20" t="s">
+      <c r="H36" s="18"/>
+      <c r="I36" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H38" s="6" t="s">
+      <c r="D39" s="14"/>
+      <c r="E39" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G41" s="14"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="I43" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="14"/>
+        <v>78</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="E44" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="18"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="5"/>
+      <c r="I44" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="15" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="17" t="s">
@@ -1798,17 +1841,18 @@
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="14"/>
-      <c r="H45" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="18"/>
+      <c r="I45" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="15" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="17" t="s">
@@ -1816,17 +1860,18 @@
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="14"/>
-      <c r="H46" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H46" s="18"/>
+      <c r="I46" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="15" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="17" t="s">
@@ -1834,230 +1879,291 @@
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="14"/>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="18"/>
+      <c r="I47" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="18"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="18"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="18"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="23"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G52" s="14"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="21" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="18"/>
+      <c r="I55" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="18"/>
+      <c r="I56" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H49" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="D57" s="22"/>
+      <c r="E57" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="23"/>
+      <c r="I57" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I58" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H51" s="6" t="s">
+      <c r="C61" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="18"/>
+      <c r="I61" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="15" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C62" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="18"/>
-      <c r="H52" s="6" t="s">
+      <c r="D62" s="14"/>
+      <c r="E62" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="18"/>
+      <c r="I62" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="18"/>
-      <c r="H53" s="6" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="14"/>
+      <c r="E63" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="18"/>
+      <c r="I63" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="21" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="19"/>
+      <c r="B64" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="23"/>
-      <c r="H54" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H55" s="6" t="s">
+      <c r="D64" s="22"/>
+      <c r="E64" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="23"/>
+      <c r="I64" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="18"/>
-      <c r="H58" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="18"/>
-      <c r="H59" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="15" t="s">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I65" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="18"/>
-      <c r="H60" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="23"/>
-      <c r="H61" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H62" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2290,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
